--- a/06 practice-myself/研究笔记/12 图像处理论文研究-融合版.xlsx
+++ b/06 practice-myself/研究笔记/12 图像处理论文研究-融合版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself\研究笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C802A-BD00-42EB-8A4D-25CADDAF4F38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC1265-07AA-4959-8674-AF665B15FC4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="290" windowWidth="14400" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>paper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,51 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05 SUMNET: FULLY CONVOLUTIONAL MODEL FOR FAST SEGMENTATION OF ANATOMICAL STRUCTURES IN ULTRASOUND VOLUMES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于图像中散斑强度的随机性，对器官和病理病变的解剖边界的划分具有较大的挑战性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多阶段处理的乳腺超声病变的自动识别依赖于前12个阶段的表现 改善目前的技术水平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07 Breast Ultrasound Lesions Recognition: End-to-end Deep Learning Approaches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09 A dynamic texture based segmentation method for ultrasound images with Surfacelet, HMT and parallel computing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对超声图像中感兴趣区域的分割问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This  article  presents  a  novel  clustering  method  called  Multi-scale  Gaussian  Kernel  induced  Fuzzy  C  -means  (MsGKFCM)  for  segmentation  of  lesions  in  automatically  extracted  Region  of  Interest  (ROI)  in  US  to  delimit  the  border  of  the  mass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">01 web-of-science-Ultrasound  image  segmentation  using  a  novel  multi-scale  Gaussian  kernel  fuzzy  clustering  and  multi-scale  vector  field  convolution </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Further,  a  hybrid  approach  using  MsGKFCM  and  Multi-scale  Vector  Field  Convolution  (MsVFC)  is  proposed  to  obtain  an  accurate  lesion  margin  in  breast  US  images.  Initially,  the  images  are  filtered  using  speckle  reducing  anisotropic  diffusion  (SRAD)  technique.  Subsequently,  MsGKFCM  is  applied  on  filtered  images  to  segment  the  mass  and  detect  an  appropriate  cluster  center.The  detected  cluster  center  is  further  used  by  MsVFC  to  determine  the  accurate  lesion  margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> we propose to use convolutional neural networks (CNNs) for
-segmenting breast ultrasound images into four major tissues: skin, fibroglandular tissue, mass, and fatty tissue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03 Medical breast ultrasound image segmentation by machine learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NSST-CGWO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,12 +66,20 @@
     <t>02-w-05-2-Multi-Modal Medical Image Fusion With Adaptive Weighted Combination of NSST Bands Using Chaotic Grey Wolf Optimization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-w-06-2-A Phase Congruency and Local Laplacian Energy Based Multi-Modality Medical Image Fusion Method in NSCT Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +101,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF454545"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -175,6 +160,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,407 +450,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.58203125" customWidth="1"/>
-    <col min="2" max="2" width="42.4140625" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.4140625" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" customWidth="1"/>
-    <col min="6" max="6" width="38.9140625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" customWidth="1"/>
+    <col min="3" max="3" width="42.4140625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.4140625" customWidth="1"/>
+    <col min="6" max="6" width="29.58203125" customWidth="1"/>
+    <col min="7" max="7" width="38.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="256" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:7" ht="256" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="190" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="190" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="173" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="173" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="23" x14ac:dyDescent="0.4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="23" x14ac:dyDescent="0.4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="23" x14ac:dyDescent="0.4">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="23" x14ac:dyDescent="0.4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="23" x14ac:dyDescent="0.4">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A51" s="6"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A52" s="6"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A54" s="6"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A55" s="6"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A56" s="6"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A57" s="6"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A58" s="6"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A59" s="6"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A60" s="6"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A61" s="6"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A62" s="6"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A63" s="6"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A64" s="6"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A65" s="6"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A66" s="6"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A67" s="6"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A68" s="6"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A69" s="6"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A70" s="6"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A71" s="6"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A72" s="6"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A73" s="6"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A74" s="6"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A75" s="6"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A76" s="6"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A77" s="6"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A78" s="6"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A79" s="6"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A80" s="6"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A81" s="6"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A82" s="6"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A83" s="6"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A84" s="6"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A85" s="6"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A86" s="6"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A87" s="6"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A88" s="6"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A89" s="6"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A90" s="6"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A91" s="6"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A92" s="6"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A93" s="6"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A94" s="6"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A95" s="6"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A96" s="6"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A97" s="6"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A98" s="6"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A99" s="6"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A100" s="6"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A101" s="6"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A102" s="6"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A103" s="6"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A104" s="6"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A105" s="6"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A106" s="6"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A107" s="6"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A108" s="6"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/06 practice-myself/研究笔记/12 图像处理论文研究-融合版.xlsx
+++ b/06 practice-myself/研究笔记/12 图像处理论文研究-融合版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E-DATA-GROUNP\github\02-research\06 practice-myself\研究笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC1265-07AA-4959-8674-AF665B15FC4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B59C4D-3035-4F5C-B782-2A1EDCC13DDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="290" windowWidth="14400" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>paper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,17 @@
   </si>
   <si>
     <t>02-w-06-2-A Phase Congruency and Local Laplacian Energy Based Multi-Modality Medical Image Fusion Method in NSCT Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在nsct基础上，低频采用局部拉普拉斯规则，高频采用相位一致规则。局部拉普拉斯算子由局部能量和拉普拉斯系数加权构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-year2015-14-Compressed Sensing MRI Using DiscreteNonseparable Shearlet Transform and FISTA</t>
+  </si>
+  <si>
+    <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +129,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -150,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,6 +185,9 @@
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -452,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -514,7 +534,9 @@
         <v>11</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -593,9 +615,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
